--- a/PP_Data.xlsx
+++ b/PP_Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="37">
   <si>
     <t>venue</t>
   </si>
@@ -501,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1048"/>
+  <dimension ref="A1:Q1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1034" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1048" sqref="A1048"/>
+      <pane ySplit="1" topLeftCell="A1035" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1056" sqref="A1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56059,6 +56059,430 @@
         <v>0</v>
       </c>
       <c r="Q1048">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1049">
+        <v>0</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1049">
+        <v>49</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+      <c r="G1049">
+        <v>6</v>
+      </c>
+      <c r="H1049">
+        <v>4</v>
+      </c>
+      <c r="I1049">
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <v>0</v>
+      </c>
+      <c r="K1049">
+        <v>0</v>
+      </c>
+      <c r="L1049">
+        <v>0</v>
+      </c>
+      <c r="M1049">
+        <v>0</v>
+      </c>
+      <c r="N1049">
+        <v>0</v>
+      </c>
+      <c r="O1049">
+        <v>1</v>
+      </c>
+      <c r="P1049">
+        <v>0</v>
+      </c>
+      <c r="Q1049">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1050">
+        <v>1</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1050">
+        <v>36</v>
+      </c>
+      <c r="F1050">
+        <v>1</v>
+      </c>
+      <c r="G1050">
+        <v>4</v>
+      </c>
+      <c r="H1050">
+        <v>6</v>
+      </c>
+      <c r="I1050">
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <v>0</v>
+      </c>
+      <c r="K1050">
+        <v>0</v>
+      </c>
+      <c r="L1050">
+        <v>0</v>
+      </c>
+      <c r="M1050">
+        <v>1</v>
+      </c>
+      <c r="N1050">
+        <v>0</v>
+      </c>
+      <c r="O1050">
+        <v>0</v>
+      </c>
+      <c r="P1050">
+        <v>0</v>
+      </c>
+      <c r="Q1050">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1051">
+        <v>0</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1051">
+        <v>49</v>
+      </c>
+      <c r="F1051">
+        <v>1</v>
+      </c>
+      <c r="G1051">
+        <v>3</v>
+      </c>
+      <c r="H1051">
+        <v>0</v>
+      </c>
+      <c r="I1051">
+        <v>0</v>
+      </c>
+      <c r="J1051">
+        <v>0</v>
+      </c>
+      <c r="K1051">
+        <v>0</v>
+      </c>
+      <c r="L1051">
+        <v>1</v>
+      </c>
+      <c r="M1051">
+        <v>0</v>
+      </c>
+      <c r="N1051">
+        <v>0</v>
+      </c>
+      <c r="O1051">
+        <v>0</v>
+      </c>
+      <c r="P1051">
+        <v>0</v>
+      </c>
+      <c r="Q1051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1052">
+        <v>1</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1052">
+        <v>58</v>
+      </c>
+      <c r="F1052">
+        <v>0</v>
+      </c>
+      <c r="G1052">
+        <v>0</v>
+      </c>
+      <c r="H1052">
+        <v>3</v>
+      </c>
+      <c r="I1052">
+        <v>1</v>
+      </c>
+      <c r="J1052">
+        <v>0</v>
+      </c>
+      <c r="K1052">
+        <v>0</v>
+      </c>
+      <c r="L1052">
+        <v>0</v>
+      </c>
+      <c r="M1052">
+        <v>0</v>
+      </c>
+      <c r="N1052">
+        <v>0</v>
+      </c>
+      <c r="O1052">
+        <v>0</v>
+      </c>
+      <c r="P1052">
+        <v>0</v>
+      </c>
+      <c r="Q1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1053">
+        <v>42</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>7</v>
+      </c>
+      <c r="H1053">
+        <v>5</v>
+      </c>
+      <c r="I1053">
+        <v>0</v>
+      </c>
+      <c r="J1053">
+        <v>0</v>
+      </c>
+      <c r="K1053">
+        <v>0</v>
+      </c>
+      <c r="L1053">
+        <v>0</v>
+      </c>
+      <c r="M1053">
+        <v>0</v>
+      </c>
+      <c r="N1053">
+        <v>0</v>
+      </c>
+      <c r="O1053">
+        <v>0</v>
+      </c>
+      <c r="P1053">
+        <v>1</v>
+      </c>
+      <c r="Q1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1054">
+        <v>1</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1054">
+        <v>57</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054">
+        <v>5</v>
+      </c>
+      <c r="H1054">
+        <v>7</v>
+      </c>
+      <c r="I1054">
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <v>0</v>
+      </c>
+      <c r="K1054">
+        <v>0</v>
+      </c>
+      <c r="L1054">
+        <v>0</v>
+      </c>
+      <c r="M1054">
+        <v>0</v>
+      </c>
+      <c r="N1054">
+        <v>1</v>
+      </c>
+      <c r="O1054">
+        <v>0</v>
+      </c>
+      <c r="P1054">
+        <v>0</v>
+      </c>
+      <c r="Q1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1055">
+        <v>0</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1055">
+        <v>39</v>
+      </c>
+      <c r="F1055">
+        <v>2</v>
+      </c>
+      <c r="G1055">
+        <v>1</v>
+      </c>
+      <c r="H1055">
+        <v>4</v>
+      </c>
+      <c r="I1055">
+        <v>0</v>
+      </c>
+      <c r="J1055">
+        <v>1</v>
+      </c>
+      <c r="K1055">
+        <v>0</v>
+      </c>
+      <c r="L1055">
+        <v>0</v>
+      </c>
+      <c r="M1055">
+        <v>0</v>
+      </c>
+      <c r="N1055">
+        <v>0</v>
+      </c>
+      <c r="O1055">
+        <v>0</v>
+      </c>
+      <c r="P1055">
+        <v>0</v>
+      </c>
+      <c r="Q1055">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1056">
+        <v>1</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1056">
+        <v>63</v>
+      </c>
+      <c r="F1056">
+        <v>0</v>
+      </c>
+      <c r="G1056">
+        <v>4</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056">
+        <v>0</v>
+      </c>
+      <c r="J1056">
+        <v>0</v>
+      </c>
+      <c r="K1056">
+        <v>0</v>
+      </c>
+      <c r="L1056">
+        <v>0</v>
+      </c>
+      <c r="M1056">
+        <v>1</v>
+      </c>
+      <c r="N1056">
+        <v>0</v>
+      </c>
+      <c r="O1056">
+        <v>0</v>
+      </c>
+      <c r="P1056">
+        <v>0</v>
+      </c>
+      <c r="Q1056">
         <v>11</v>
       </c>
     </row>
